--- a/Taylor-Swift_Red-Taylors-Version/Red-Taylors-Version_full_album_info.xlsx
+++ b/Taylor-Swift_Red-Taylors-Version/Red-Taylors-Version_full_album_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="171">
   <si>
     <t>Album</t>
   </si>
@@ -154,9 +154,6 @@
     <t>All Too Well (10 Minute Version) (Taylor's Version) [From The Vault]</t>
   </si>
   <si>
-    <t>A Message From Taylor</t>
-  </si>
-  <si>
     <t>Gary Lightbody</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>2021-11-12</t>
   </si>
   <si>
-    <t>2021-10-15</t>
-  </si>
-  <si>
     <t>https://genius.com/Taylor-swift-state-of-grace-taylors-version-lyrics</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
   </si>
   <si>
     <t>https://genius.com/Taylor-swift-all-too-well-10-minute-version-taylors-version-from-the-vault-lyrics</t>
-  </si>
-  <si>
-    <t>https://genius.com/Taylor-swift-a-message-from-taylor-annotated</t>
   </si>
   <si>
     <t>I'm walkin' fast through the traffic lights
@@ -1859,15 +1850,6 @@
 It was rare, you remember it</t>
   </si>
   <si>
-    <t>Musically and lyrically, Red resembled a heart-broken person
-It was all over the place
-A fractured mosaic of feelings that somehow all fit together in the end
-Happy, free, confused, lonely, devastated, euphoric, wild
-And tortured by memories past
-These are the original thirty songs that were meant for Red
-I love you guysSee Taylor Swift LiveGet tickets as low as $</t>
-  </si>
-  <si>
     <t>4 minutes 55 seconds</t>
   </si>
   <si>
@@ -1944,9 +1926,6 @@
   </si>
   <si>
     <t>10 minutes 13 seconds</t>
-  </si>
-  <si>
-    <t>0 minutes 25 seconds</t>
   </si>
   <si>
     <t>['Christopher Rowe', 'Taylor Swift']</t>
@@ -2419,1624 +2398,1486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>2021</v>
+      </c>
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2">
+        <v>6688185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2">
+        <v>295</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>2021</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2">
-        <v>6688185</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2">
-        <v>295</v>
-      </c>
-      <c r="N2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3">
+        <v>6688196</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3">
+        <v>223</v>
+      </c>
+      <c r="M3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="H3">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <v>6688197</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4">
+        <v>242</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K3">
-        <v>6688196</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="J5">
+        <v>6688198</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5">
+        <v>219</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6">
+        <v>6688199</v>
+      </c>
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="M3">
+      <c r="L6">
+        <v>329</v>
+      </c>
+      <c r="M6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <v>6688200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7">
+        <v>230</v>
+      </c>
+      <c r="M7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>6688201</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>244</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9">
+        <v>6688202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>193</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>6688203</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>205</v>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>6688204</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>299</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <v>6688205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>202</v>
+      </c>
+      <c r="M12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>6688206</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13">
+        <v>284</v>
+      </c>
+      <c r="M13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14">
+        <v>6688207</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14">
+        <v>240</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>6688208</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15">
+        <v>245</v>
+      </c>
+      <c r="M15" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16">
+        <v>6688209</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <v>220</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>6688210</v>
+      </c>
+      <c r="K17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17">
+        <v>238</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18">
+        <v>6688338</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18">
+        <v>285</v>
+      </c>
+      <c r="M18" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>2021</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19">
+        <v>6688341</v>
+      </c>
+      <c r="K19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19">
         <v>223</v>
       </c>
-      <c r="N3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>155</v>
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="H4">
+      <c r="G20">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="H20">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4">
-        <v>6688197</v>
-      </c>
-      <c r="L4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4">
-        <v>242</v>
-      </c>
-      <c r="N4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="I20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20">
+        <v>6688339</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20">
+        <v>220</v>
+      </c>
+      <c r="M20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" t="s">
         <v>143</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O20" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>2021</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>7379117</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>321</v>
+      </c>
+      <c r="M21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" t="s">
+        <v>137</v>
+      </c>
+      <c r="O21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>2021</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22">
+        <v>7078171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22">
+        <v>264</v>
+      </c>
+      <c r="M22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="H5">
+      <c r="G23">
         <v>11</v>
       </c>
-      <c r="I5">
+      <c r="H23">
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5">
-        <v>6688198</v>
-      </c>
-      <c r="L5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5">
-        <v>219</v>
-      </c>
-      <c r="N5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="I23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23">
+        <v>7076619</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23">
+        <v>297</v>
+      </c>
+      <c r="M23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" t="s">
         <v>144</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>2021</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24">
+        <v>4809175</v>
+      </c>
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24">
+        <v>258</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>2021</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25">
+        <v>7076620</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25">
+        <v>224</v>
+      </c>
+      <c r="M25" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26">
         <v>2021</v>
       </c>
-      <c r="H6">
+      <c r="G26">
         <v>11</v>
       </c>
-      <c r="I6">
+      <c r="H26">
         <v>12</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6">
-        <v>6688199</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6">
-        <v>329</v>
-      </c>
-      <c r="N6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>168</v>
+      <c r="I26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26">
+        <v>7078185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26">
+        <v>225</v>
+      </c>
+      <c r="M26" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O26" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <v>2021</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7">
-        <v>6688200</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7">
-        <v>230</v>
-      </c>
-      <c r="N7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <v>2021</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8">
-        <v>6688201</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8">
-        <v>244</v>
-      </c>
-      <c r="N8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9">
-        <v>2021</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>6688202</v>
-      </c>
-      <c r="L9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9">
-        <v>193</v>
-      </c>
-      <c r="N9" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" t="s">
-        <v>144</v>
-      </c>
-      <c r="P9" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10">
-        <v>2021</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10">
-        <v>6688203</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10">
-        <v>205</v>
-      </c>
-      <c r="N10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <v>2021</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11">
-        <v>6688204</v>
-      </c>
-      <c r="L11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11">
-        <v>299</v>
-      </c>
-      <c r="N11" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" t="s">
-        <v>145</v>
-      </c>
-      <c r="P11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <v>2021</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12">
-        <v>6688205</v>
-      </c>
-      <c r="L12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12">
-        <v>202</v>
-      </c>
-      <c r="N12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" t="s">
-        <v>146</v>
-      </c>
-      <c r="P12" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13">
-        <v>2021</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13">
-        <v>6688206</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13">
-        <v>284</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14">
-        <v>2021</v>
-      </c>
-      <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14">
-        <v>6688207</v>
-      </c>
-      <c r="L14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14">
-        <v>240</v>
-      </c>
-      <c r="N14" t="s">
-        <v>127</v>
-      </c>
-      <c r="O14" t="s">
-        <v>146</v>
-      </c>
-      <c r="P14" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15">
-        <v>2021</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15">
-        <v>6688208</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15">
-        <v>245</v>
-      </c>
-      <c r="N15" t="s">
-        <v>128</v>
-      </c>
-      <c r="O15" t="s">
-        <v>147</v>
-      </c>
-      <c r="P15" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16">
-        <v>2021</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16">
-        <v>6688209</v>
-      </c>
-      <c r="L16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16">
-        <v>220</v>
-      </c>
-      <c r="N16" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17">
-        <v>2021</v>
-      </c>
-      <c r="H17">
-        <v>11</v>
-      </c>
-      <c r="I17">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17">
-        <v>6688210</v>
-      </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17">
-        <v>238</v>
-      </c>
-      <c r="N17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O17" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18">
-        <v>2021</v>
-      </c>
-      <c r="H18">
-        <v>11</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18">
-        <v>6688338</v>
-      </c>
-      <c r="L18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>285</v>
-      </c>
-      <c r="N18" t="s">
-        <v>131</v>
-      </c>
-      <c r="O18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19">
-        <v>2021</v>
-      </c>
-      <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19">
-        <v>6688341</v>
-      </c>
-      <c r="L19" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19">
-        <v>223</v>
-      </c>
-      <c r="N19" t="s">
-        <v>116</v>
-      </c>
-      <c r="O19" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20">
-        <v>2021</v>
-      </c>
-      <c r="H20">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20">
-        <v>6688339</v>
-      </c>
-      <c r="L20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s">
-        <v>129</v>
-      </c>
-      <c r="O20" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21">
-        <v>2021</v>
-      </c>
-      <c r="H21">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21">
-        <v>7379117</v>
-      </c>
-      <c r="L21" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21">
-        <v>321</v>
-      </c>
-      <c r="N21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O21" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22">
-        <v>2021</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22">
-        <v>7078171</v>
-      </c>
-      <c r="L22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22">
-        <v>264</v>
-      </c>
-      <c r="N22" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23">
-        <v>2021</v>
-      </c>
-      <c r="H23">
-        <v>11</v>
-      </c>
-      <c r="I23">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23">
-        <v>7076619</v>
-      </c>
-      <c r="L23" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23">
-        <v>297</v>
-      </c>
-      <c r="N23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D27" t="s">
         <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24">
-        <v>2021</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24">
-        <v>4809175</v>
-      </c>
-      <c r="L24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24">
-        <v>258</v>
-      </c>
-      <c r="N24" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" t="s">
-        <v>149</v>
-      </c>
-      <c r="P24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25">
-        <v>2021</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>12</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25">
-        <v>7076620</v>
-      </c>
-      <c r="L25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25">
-        <v>224</v>
-      </c>
-      <c r="N25" t="s">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s">
-        <v>150</v>
-      </c>
-      <c r="P25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26">
-        <v>2021</v>
-      </c>
-      <c r="H26">
-        <v>11</v>
-      </c>
-      <c r="I26">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26">
-        <v>7078185</v>
-      </c>
-      <c r="L26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26">
-        <v>225</v>
-      </c>
-      <c r="N26" t="s">
-        <v>137</v>
-      </c>
-      <c r="O26" t="s">
-        <v>151</v>
-      </c>
-      <c r="P26" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
-        <v>51</v>
+      <c r="F27">
+        <v>2021</v>
       </c>
       <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27">
+        <v>4499978</v>
+      </c>
+      <c r="K27" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="H27">
+      <c r="G28">
         <v>11</v>
       </c>
-      <c r="I27">
+      <c r="H28">
         <v>12</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="I28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28">
+        <v>7076622</v>
+      </c>
+      <c r="K28" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>2021</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K27">
-        <v>4499978</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="J29">
+        <v>7076623</v>
+      </c>
+      <c r="K29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29">
+        <v>240</v>
+      </c>
+      <c r="M29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" t="s">
+        <v>147</v>
+      </c>
+      <c r="O29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>2021</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30">
+        <v>7076625</v>
+      </c>
+      <c r="K30" t="s">
         <v>109</v>
       </c>
-      <c r="M27">
-        <v>285</v>
-      </c>
-      <c r="N27" t="s">
-        <v>131</v>
-      </c>
-      <c r="O27" t="s">
-        <v>152</v>
-      </c>
-      <c r="P27" t="s">
-        <v>163</v>
+      <c r="L30">
+        <v>200</v>
+      </c>
+      <c r="M30" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
         <v>2021</v>
       </c>
-      <c r="H28">
+      <c r="G31">
         <v>11</v>
       </c>
-      <c r="I28">
+      <c r="H31">
         <v>12</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28">
-        <v>7076622</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="I31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31">
+        <v>7076626</v>
+      </c>
+      <c r="K31" t="s">
         <v>110</v>
       </c>
-      <c r="M28">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s">
-        <v>138</v>
-      </c>
-      <c r="O28" t="s">
-        <v>153</v>
-      </c>
-      <c r="P28" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29">
-        <v>2021</v>
-      </c>
-      <c r="H29">
-        <v>11</v>
-      </c>
-      <c r="I29">
-        <v>12</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29">
-        <v>7076623</v>
-      </c>
-      <c r="L29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29">
-        <v>240</v>
-      </c>
-      <c r="N29" t="s">
-        <v>127</v>
-      </c>
-      <c r="O29" t="s">
-        <v>152</v>
-      </c>
-      <c r="P29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30">
-        <v>2021</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30">
-        <v>7076625</v>
-      </c>
-      <c r="L30" t="s">
-        <v>112</v>
-      </c>
-      <c r="M30">
-        <v>200</v>
-      </c>
-      <c r="N30" t="s">
-        <v>139</v>
-      </c>
-      <c r="O30" t="s">
-        <v>154</v>
-      </c>
-      <c r="P30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31">
-        <v>2021</v>
-      </c>
-      <c r="H31">
-        <v>11</v>
-      </c>
-      <c r="I31">
-        <v>12</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K31">
-        <v>7076626</v>
-      </c>
-      <c r="L31" t="s">
-        <v>113</v>
-      </c>
-      <c r="M31">
+      <c r="L31">
         <v>613</v>
       </c>
+      <c r="M31" t="s">
+        <v>136</v>
+      </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O31" t="s">
-        <v>153</v>
-      </c>
-      <c r="P31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32">
-        <v>2021</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>15</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32">
-        <v>7291673</v>
-      </c>
-      <c r="L32" t="s">
-        <v>114</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32" t="s">
-        <v>141</v>
-      </c>
-      <c r="O32" t="s">
-        <v>155</v>
-      </c>
-      <c r="P32" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
